--- a/experimental results/e6000_FrozenLake.xlsx
+++ b/experimental results/e6000_FrozenLake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="178">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,127 +70,115 @@
     <t>[0,0,2,3]</t>
   </si>
   <si>
-    <t>[36, 50, 51]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 1, 1, 0, 1, 2, 2, 1, 0, 1, 1, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14', '14', '10', '14', '13', '13', '9', '10', '14', '14', '13', '13', '14', '15']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62]</t>
+    <t>[38, 42]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 0, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '10', '9', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42]</t>
   </si>
   <si>
     <t>Omitted</t>
   </si>
   <si>
-    <t>['[2,1,0,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>[36, 50, 51, 53]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 1, 1, 0, 1, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14', '14', '10', '14', '10', '6', '10', '14', '15']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,1,2,0]', '[0,0,0,3]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,3]', '[2,1,0,3]', '[0,1,0,0]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48, 50, 55, 57, 59]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 2, 1, 3, 1, 2, 1, 2, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9', '13', '13', '9', '8', '9', '13', '9', '13', '14', '10', '6', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48, 58, 62, 63, 64]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 0, 0, 0, 0, 0, 0, 1, 2, 2, 2, 1, 1, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9', '10', '6', '10', '6', '2', '6', '10', '14', '13', '13', '13', '14', '14', '14', '10', '6', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48, 50, 53]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9', '13', '13', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,1,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,0,3]']</t>
+    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,0,0]', '[2,1,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[36, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,2,0]']</t>
   </si>
   <si>
     <t>[2,1,2,3]</t>
   </si>
   <si>
-    <t>[3, 5, 7, 9, 10, 13, 14]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 3, 0, 0, 0, 3, 0, 0, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '8', '4', '0', '0', '1', '2', '2', '3', '3', '2', '6', '7']</t>
+    <t>[3, 9, 18, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 3, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '8', '4', '8', '4', '4', '0', '0', '0', '0', '4', '0', '0', '0', '0', '0', '4', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[3, 9, 10, 13, 14]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 3, 0, 3, 0, 0, 0, 0, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '8', '4', '8', '4', '4', '0', '0', '1', '2', '6', '10', '11']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
   </si>
   <si>
-    <t>['[0,3,2,1]', '[0,0,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 7]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '0', '0', '1', '0', '0', '1', '2', '6', '5']</t>
+    <t>['[0,0,2,3]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 6, 9, 13, 14]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 3, 0, 3, 3, 0, 0, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '0', '1', '0', '1', '1', '2', '2', '1', '2', '6', '10', '11']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 7, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '0', '0', '0', '0', '1', '2', '6', '7']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
-    <t>['[0,0,2,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 6, 10]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '0', '0', '0', '1', '1', '2', '6', '7']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,0,3]']</t>
+    <t>['[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,1,0,0]', '[0,1,2,0]']</t>
   </si>
   <si>
     <t>[1, 2, 3, 4]</t>
@@ -205,241 +193,208 @@
     <t>[0, 1, 2, 3, 4]</t>
   </si>
   <si>
-    <t>['[0,1,0,0]', '[0,0,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,0,3]']</t>
+    <t>['[2,1,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]']</t>
   </si>
   <si>
     <t>[0,1,2,0]</t>
   </si>
   <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3, 3, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '8', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '15']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[25, 26]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '15']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>[35, 47, 49]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '12']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>[0,0,0,3]</t>
+  </si>
+  <si>
+    <t>[38, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 0, 1, 3, 3, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '10', '9', '8', '8', '4', '4', '8', '9', '13', '9']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[0,1,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[36, 48, 49]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '13']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[0,0,2,0]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,0,0]', '[2,1,2,3]']</t>
+  </si>
+  <si>
     <t>[35]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14', '15']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50]</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,0,0]', '[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[0,0,0,3]</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[36]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14', '15']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,3,2,1]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[39]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[36, 50, 51, 53, 57, 58, 60, 62, 63, 64, 65]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 1, 1, 0, 1, 0, 0, 0, 1, 1, 2, 2, 1, 2, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14', '14', '10', '14', '10', '6', '10', '14', '14', '13', '13', '9', '13', '13', '13', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48, 49, 50, 51, 52, 53, 54]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 2, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '13', '13', '9', '13', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[0,0,2,0]</t>
-  </si>
-  <si>
-    <t>[25, 40, 41]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3, 3, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1, 1, 2, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '8', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '14', '13', '13', '9', '13', '14', '15']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,0,0]', '[1,0,2,3]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>[36, 47, 49]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[2,1,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[2,1,2,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,0,0,0]']</t>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[25, 28]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,2,3]']</t>
   </si>
   <si>
     <t>[0,1,0,0]</t>
   </si>
   <si>
-    <t>['[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,1,2,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[35, 47, 50]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '8', '12']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,0,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[0,1,2,0]', '[2,1,2,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]']</t>
+    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,0,0]']</t>
   </si>
   <si>
     <t>[0,0,0,0]</t>
   </si>
   <si>
-    <t>['[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[36, 50, 54, 57]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 1, 1, 2, 1, 3, 0, 3, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14', '14', '13', '9', '8', '4', '8', '8', '12']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,0,0]', '[0,1,2,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]']</t>
+    <t>['[0,1,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,0,2,3]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[25, 27]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
   </si>
   <si>
     <t>[0,3,2,1]</t>
   </si>
   <si>
-    <t>[24, 29]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '9', '13', '13', '13', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29]</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,2,0]']</t>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,0,0,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
   </si>
   <si>
     <t>[24, 25]</t>
@@ -451,91 +406,133 @@
     <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '9', '5']</t>
   </si>
   <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36]</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,2,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,0]']</t>
+    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,2,0]']</t>
   </si>
   <si>
     <t>[2,1,0,3]</t>
   </si>
   <si>
-    <t>[8, 11, 27, 30, 39]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 3, 3, 1, 2, 2, 1, 2, 2, 1, 3, 0, 3, 3, 3, 0, 0, 0, 3, 0, 3, 0, 3, 0, 3, 1, 2, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '8', '8', '4', '8', '8', '9', '13', '13', '14', '13', '13', '9', '8', '4', '8', '8', '8', '4', '0', '4', '8', '4', '8', '4', '8', '4', '8', '9', '13', '14', '13', '12']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 8, 9, 11, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '0', '0', '1', '0', '0', '0', '4', '0', '0', '4', '0', '4', '5']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[2,1,2,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 5, 6, 9, 10, 13, 14]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '4', '4', '0', '1', '1', '2', '2', '3', '3', '2', '6', '7']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,3,2,1]', '[2,1,0,3]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,2,0]']</t>
+    <t>[1, 7]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 1, 2, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '4', '8', '9', '13', '9', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>[4, 8, 15, 17]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 3, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '1', '0', '0', '0', '4', '8', '4', '0', '4', '0', '0', '4', '4', '8', '9', '10', '6', '5']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 1, 2, 2]</t>
+  </si>
+  <si>
+    <t>['0', '4', '8', '9', '13', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 5, 11, 13, 16]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 1, 2, 2, 1, 1, 2, 1, 2, 1, 0, 1, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '4', '8', '9', '13', '13', '14', '14', '13', '9', '13', '9', '10', '14', '14', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,0,0]']</t>
   </si>
   <si>
     <t>[1,0,2,3]</t>
   </si>
   <si>
-    <t>[1, 3, 4, 10, 13, 20]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 3, 1, 0, 1, 2, 2, 1, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '4', '8', '8', '4', '4', '0', '4', '8', '9', '10', '9', '13', '13', '14', '13', '13', '9', '5']</t>
+    <t>[9, 13]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '1', '1', '2', '6', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>[1, 3, 4, 7, 9, 17, 19, 21, 22]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 3, 3, 0, 3, 1, 2, 1, 2, 1, 3, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '4', '8', '8', '4', '8', '9', '13', '14', '13', '9', '8', '4', '0', '0', '0', '0', '1', '2', '6', '7']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,0,2,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[3, 4, 8, 11, 14, 20]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 3, 3, 0, 0, 0, 3, 0, 0, 3, 1, 3, 1, 2, 2, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '4', '8', '8', '4', '4', '4', '8', '4', '4', '8', '9', '8', '9', '13', '13', '13', '9', '5']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20]</t>
   </si>
   <si>
-    <t>['[0,1,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,0,0]']</t>
+    <t>['[0,0,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 6, 7, 9, 13]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 0, 3, 0, 0, 3, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '1', '2', '1', '0', '4', '8', '9', '13', '14', '13', '9', '5']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]']</t>
   </si>
   <si>
     <t>[1, 2, 4, 5]</t>
@@ -550,28 +547,7 @@
     <t>[0, 1, 2, 3, 4, 5]</t>
   </si>
   <si>
-    <t>['[0,0,0,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 7, 9, 11, 12]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 3, 0, 3, 1, 2, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '4', '8', '8', '4', '8', '9', '13', '14', '10', '11']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[1,0,2,3]', '[0,3,2,1]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,1,0,0]']</t>
+    <t>['[2,1,2,3]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,3]']</t>
   </si>
 </sst>
 </file>
@@ -619,8 +595,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P51" totalsRowShown="0">
-  <autoFilter ref="A1:P51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P101" totalsRowShown="0">
+  <autoFilter ref="A1:P101"/>
   <tableColumns count="16">
     <tableColumn id="1" name="01_i_domain_name"/>
     <tableColumn id="2" name="02_i_execution_fault_mode_name"/>
@@ -928,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1001,13 +977,13 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -1019,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1042,34 +1018,34 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1081,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1092,34 +1068,34 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1131,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1142,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1181,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1192,34 +1168,34 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1231,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1239,37 +1215,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1281,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1289,38 +1265,38 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
@@ -1331,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1339,37 +1315,37 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1381,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1389,37 +1365,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1431,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1439,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1448,28 +1424,28 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1481,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1489,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1498,28 +1474,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1531,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1539,37 +1515,37 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1581,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1589,37 +1565,37 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1631,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1639,37 +1615,37 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1681,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1689,37 +1665,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1731,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1739,37 +1715,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1781,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1789,37 +1765,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1831,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1839,37 +1815,37 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1881,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1889,37 +1865,37 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H20">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1931,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1939,7 +1915,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1948,28 +1924,28 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="L21">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1981,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1989,7 +1965,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -1998,28 +1974,28 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="H22">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2031,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2039,37 +2015,37 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2081,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2089,37 +2065,37 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C24">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2131,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2139,37 +2115,37 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2181,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2189,49 +2165,49 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
         <v>72</v>
       </c>
-      <c r="H26">
-        <v>24</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26" t="s">
         <v>73</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26">
-        <v>25</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26">
-        <v>10</v>
-      </c>
-      <c r="P26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2239,49 +2215,49 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
         <v>72</v>
       </c>
-      <c r="H27">
-        <v>24</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
         <v>73</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27">
-        <v>10</v>
-      </c>
-      <c r="P27" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2289,34 +2265,34 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H28">
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L28">
         <v>25</v>
@@ -2331,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2339,37 +2315,37 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2381,7 +2357,7 @@
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2389,34 +2365,34 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H30">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2431,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2439,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2448,25 +2424,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H31">
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L31">
         <v>25</v>
@@ -2481,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2489,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2498,28 +2474,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2531,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2539,28 +2515,28 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -2569,7 +2545,7 @@
         <v>27</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2581,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2589,37 +2565,37 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C34">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2631,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2639,37 +2615,37 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2681,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2689,37 +2665,37 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2731,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2739,37 +2715,37 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2781,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2789,37 +2765,37 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C38">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2831,7 +2807,7 @@
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2839,37 +2815,37 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C39">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2881,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2889,37 +2865,37 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2931,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2939,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2948,28 +2924,28 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2981,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2989,7 +2965,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -2998,40 +2974,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="H42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42" t="s">
         <v>92</v>
-      </c>
-      <c r="L42">
-        <v>40</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>22</v>
-      </c>
-      <c r="O42">
-        <v>10</v>
-      </c>
-      <c r="P42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3039,37 +3015,37 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C43">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3081,7 +3057,7 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3089,37 +3065,37 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C44">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3131,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3139,37 +3115,37 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3181,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3189,37 +3165,37 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3231,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3239,37 +3215,37 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C47">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3281,7 +3257,7 @@
         <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3289,37 +3265,37 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3331,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3339,37 +3315,37 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C49">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3381,7 +3357,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3389,37 +3365,37 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3431,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3439,49 +3415,2549 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L51">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52">
+        <v>25</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>0.2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L53">
+        <v>25</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55">
+        <v>0.4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <v>0.6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>76</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56">
+        <v>25</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57">
+        <v>0.6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57">
+        <v>25</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59">
+        <v>25</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59">
+        <v>10</v>
+      </c>
+      <c r="P59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60">
+        <v>25</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61">
+        <v>25</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62">
+        <v>0.2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <v>49</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63">
+        <v>0.2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>49</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64">
+        <v>0.4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>114</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64">
+        <v>28</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>10</v>
+      </c>
+      <c r="P64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65">
+        <v>0.4</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65">
+        <v>10</v>
+      </c>
+      <c r="P65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66">
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66">
+        <v>25</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67">
+        <v>0.6</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67">
+        <v>24</v>
+      </c>
+      <c r="I67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>77</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>77</v>
+      </c>
+      <c r="L68">
+        <v>25</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>77</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69">
+        <v>10</v>
+      </c>
+      <c r="P69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>77</v>
+      </c>
+      <c r="L70">
+        <v>25</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>77</v>
+      </c>
+      <c r="L71">
+        <v>25</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72">
+        <v>0.2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>122</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+      <c r="K72" t="s">
+        <v>123</v>
+      </c>
+      <c r="L72">
+        <v>26</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72">
+        <v>10</v>
+      </c>
+      <c r="P72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+      <c r="K73" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73">
+        <v>26</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74">
+        <v>0.4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74" t="s">
+        <v>123</v>
+      </c>
+      <c r="L74">
+        <v>26</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75">
+        <v>0.4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>122</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75" t="s">
+        <v>123</v>
+      </c>
+      <c r="L75">
+        <v>26</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76">
+        <v>0.6</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s">
+        <v>122</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76">
+        <v>26</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>0.6</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H77">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77">
+        <v>26</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>128</v>
+      </c>
+      <c r="H78">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78">
+        <v>26</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78">
+        <v>10</v>
+      </c>
+      <c r="P78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>129</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s">
+        <v>123</v>
+      </c>
+      <c r="L79">
+        <v>26</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80">
+        <v>26</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80">
+        <v>10</v>
+      </c>
+      <c r="P80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81" t="s">
+        <v>123</v>
+      </c>
+      <c r="L81">
+        <v>26</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81">
+        <v>10</v>
+      </c>
+      <c r="P81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82">
+        <v>0.2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82">
+        <v>7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>135</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82" t="s">
+        <v>136</v>
+      </c>
+      <c r="L82">
+        <v>8</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82">
+        <v>10</v>
+      </c>
+      <c r="P82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+      <c r="I83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+      <c r="K83" t="s">
+        <v>136</v>
+      </c>
+      <c r="L83">
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83">
+        <v>10</v>
+      </c>
+      <c r="P83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>140</v>
+      </c>
+      <c r="J84">
+        <v>100</v>
+      </c>
+      <c r="K84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84">
+        <v>22</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84">
+        <v>10</v>
+      </c>
+      <c r="P84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85">
+        <v>0.4</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>140</v>
+      </c>
+      <c r="J85">
+        <v>100</v>
+      </c>
+      <c r="K85" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85">
+        <v>22</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85">
+        <v>10</v>
+      </c>
+      <c r="P85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86">
+        <v>0.6</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>143</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86" t="s">
+        <v>144</v>
+      </c>
+      <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86" t="s">
+        <v>145</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86">
+        <v>10</v>
+      </c>
+      <c r="P86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87">
+        <v>0.6</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>143</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>144</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>145</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87">
+        <v>10</v>
+      </c>
+      <c r="P87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H88">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>149</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s">
+        <v>150</v>
+      </c>
+      <c r="L88">
+        <v>17</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88">
+        <v>10</v>
+      </c>
+      <c r="P88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>148</v>
+      </c>
+      <c r="H89">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>149</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>150</v>
+      </c>
+      <c r="L89">
+        <v>17</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>22</v>
+      </c>
+      <c r="O89">
+        <v>10</v>
+      </c>
+      <c r="P89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90">
+        <v>100</v>
+      </c>
+      <c r="K90" t="s">
+        <v>58</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>22</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91">
+        <v>100</v>
+      </c>
+      <c r="K91" t="s">
+        <v>58</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>22</v>
+      </c>
+      <c r="O91">
+        <v>10</v>
+      </c>
+      <c r="P91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>155</v>
+      </c>
+      <c r="H92">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>156</v>
+      </c>
+      <c r="J92">
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>157</v>
+      </c>
+      <c r="L92">
+        <v>14</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92">
+        <v>10</v>
+      </c>
+      <c r="P92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>155</v>
+      </c>
+      <c r="H93">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>156</v>
+      </c>
+      <c r="J93">
+        <v>100</v>
+      </c>
+      <c r="K93" t="s">
+        <v>157</v>
+      </c>
+      <c r="L93">
+        <v>14</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93">
+        <v>10</v>
+      </c>
+      <c r="P93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
+        <v>161</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94" t="s">
+        <v>162</v>
+      </c>
+      <c r="L94">
+        <v>23</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94">
+        <v>10</v>
+      </c>
+      <c r="P94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95">
+        <v>0.4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>160</v>
+      </c>
+      <c r="H95">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>161</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95" t="s">
+        <v>162</v>
+      </c>
+      <c r="L95">
+        <v>23</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96">
+        <v>0.6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>165</v>
+      </c>
+      <c r="H96">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>166</v>
+      </c>
+      <c r="J96">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s">
+        <v>167</v>
+      </c>
+      <c r="L96">
+        <v>21</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96" t="s">
         <v>168</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97">
+        <v>0.6</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
+        <v>166</v>
+      </c>
+      <c r="J97">
+        <v>100</v>
+      </c>
+      <c r="K97" t="s">
+        <v>167</v>
+      </c>
+      <c r="L97">
+        <v>21</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>22</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
+      <c r="P97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98">
+        <v>0.8</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>171</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98" t="s">
+        <v>157</v>
+      </c>
+      <c r="L98">
+        <v>14</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>22</v>
+      </c>
+      <c r="O98">
+        <v>10</v>
+      </c>
+      <c r="P98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>170</v>
+      </c>
+      <c r="H99">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>171</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99" t="s">
+        <v>157</v>
+      </c>
+      <c r="L99">
+        <v>14</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99">
+        <v>10</v>
+      </c>
+      <c r="P99" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
         <v>174</v>
       </c>
-      <c r="F51">
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>175</v>
+      </c>
+      <c r="J100">
+        <v>100</v>
+      </c>
+      <c r="K100" t="s">
+        <v>176</v>
+      </c>
+      <c r="L100">
+        <v>6</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100">
+        <v>10</v>
+      </c>
+      <c r="P100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>173</v>
+      </c>
+      <c r="F101">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G101" t="s">
+        <v>174</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101" t="s">
         <v>175</v>
       </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J101">
+        <v>100</v>
+      </c>
+      <c r="K101" t="s">
         <v>176</v>
       </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L101">
+        <v>6</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>22</v>
+      </c>
+      <c r="O101">
+        <v>10</v>
+      </c>
+      <c r="P101" t="s">
         <v>177</v>
-      </c>
-      <c r="L51">
-        <v>6</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51">
-        <v>10</v>
-      </c>
-      <c r="P51" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e6000_FrozenLake.xlsx
+++ b/experimental results/e6000_FrozenLake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="180">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,22 +70,181 @@
     <t>[0,0,2,3]</t>
   </si>
   <si>
-    <t>[38, 42]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 0, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '10', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42]</t>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1, 1, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '14', '14', '13', '9', '13', '14', '15']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46]</t>
   </si>
   <si>
     <t>Omitted</t>
   </si>
   <si>
-    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,0,3]']</t>
+    <t>['[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[38, 40, 44, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 2, 1, 2, 1, 3, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '13', '14', '13', '9', '8', '4', '8', '9', '13', '9']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[36, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[2,1,2,3]', '[2,1,0,3]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[2,1,2,3]</t>
+  </si>
+  <si>
+    <t>[8, 12, 19, 20, 28, 31, 35, 38, 43, 44, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 3, 0, 0, 3, 0, 3, 0, 0, 0, 3, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '8', '8', '4', '0', '0', '0', '0', '0', '0', '0', '0', '0', '4', '4', '8', '8', '8', '4', '0', '0', '0', '0', '0', '1', '0', '0', '4', '8', '4', '4', '8', '4', '8', '4', '0', '0', '1', '1', '0', '0', '0', '4']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[4, 7, 9, 16, 23, 27, 30]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 3, 0, 0, 3, 0, 0, 3, 0, 0, 0, 3, 0, 3, 3, 3, 0, 0, 3, 0, 0, 0, 0, 0, 0, 3, 0, 3, 0, 3, 0, 3, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '1', '0', '0', '1', '2', '2', '1', '2', '6', '2', '1', '2', '3', '3', '3', '2', '2', '1', '0', '0', '4', '4', '0', '4', '8', '4', '8', '4', '8', '4', '8', '9', '13', '14', '13', '14', '15']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[5, 6, 9, 12, 16, 20]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 3, 0, 0, 0, 3, 0, 3, 3, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '0', '1', '1', '2', '2', '1', '2', '2', '2', '1', '2', '3', '3', '3', '2', '6', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 7]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 3, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '4', '4', '8', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,3,2,1]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,0]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[25, 26, 35, 47]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '8']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[25, 26, 35]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[0,0,0,3]</t>
   </si>
   <si>
     <t>[36]</t>
@@ -97,457 +256,304 @@
     <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
   </si>
   <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,0,0]', '[2,1,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[2,1,2,3]</t>
-  </si>
-  <si>
-    <t>[3, 9, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 3, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '8', '4', '8', '4', '4', '0', '0', '0', '0', '4', '0', '0', '0', '0', '0', '4', '0', '4', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[3, 9, 10, 13, 14]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 3, 0, 3, 0, 0, 0, 0, 3, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '8', '4', '8', '4', '4', '0', '0', '1', '2', '6', '10', '11']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 6, 9, 13, 14]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 0, 3, 3, 0, 0, 3, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '0', '1', '0', '1', '1', '2', '2', '1', '2', '6', '10', '11']</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 7, 10]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '0', '0', '0', '0', '1', '2', '6', '7']</t>
+    <t>['[0,1,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,2,3]', '[2,1,0,3]', '[0,1,0,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[36, 48, 49]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '13']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[0,0,2,0]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,0,3]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[25, 28]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[0,1,0,0]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,1,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[25, 29, 30, 33, 35]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3, 3, 3, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '8', '8', '4', '4', '8', '8', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,0,3]', '[0,0,0,0]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,2,3]', '[2,1,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[0,0,0,0]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[36, 47]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '8']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[36, 37, 38, 41, 42, 44, 45, 46]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 3, 0, 0, 3, 3, 0, 3, 3, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '8', '4', '4', '8', '8', '4', '8', '8', '8', '12']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,3,2,1]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[0,3,2,1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '8', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[35, 36]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[24, 25]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '9', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '12']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[2,1,0,3]</t>
+  </si>
+  <si>
+    <t>[3, 11, 27, 31, 40, 44]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 3, 0, 3, 0, 0, 0, 0, 0, 3, 3, 1, 2, 2, 1, 2, 2, 1, 3, 0, 3, 3, 3, 0, 0, 0, 3, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '8', '4', '8', '4', '4', '0', '4', '4', '8', '8', '9', '13', '13', '14', '13', '13', '9', '8', '4', '8', '8', '8', '4', '0', '4', '8', '4', '0', '1', '0', '0', '4', '0', '0', '0', '0', '0', '0', '0', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44]</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,0,3]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 7, 9, 10, 14, 20]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 3, 3, 0, 0, 3, 3, 3, 3, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '0', '0', '0', '0', '1', '2', '2', '3', '3', '2', '2', '3', '3', '3', '3', '3', '2', '6', '5']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4]</t>
+  </si>
+  <si>
+    <t>['0', '0', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,0,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[1,0,2,3]</t>
+  </si>
+  <si>
+    <t>[1, 5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 3, 3, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '1', '1', '1', '2', '6', '5']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
   </si>
   <si>
-    <t>['[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,1,0,0]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '4', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,0]</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3, 3, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '8', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '15']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[25, 26]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '15']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[35, 47, 49]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '12']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[0,0,0,3]</t>
-  </si>
-  <si>
-    <t>[38, 48]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 0, 1, 3, 3, 0, 0, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '10', '9', '8', '8', '4', '4', '8', '9', '13', '9']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[0,1,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48, 49]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '13']</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[0,0,2,0]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,0,0,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,0,0]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[35]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[25, 28]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[0,1,0,0]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[0,0,0,0]</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,0,2,3]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[25, 27]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[0,3,2,1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,0,0,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[24, 25]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '9', '5']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[2,1,0,3]</t>
-  </si>
-  <si>
-    <t>[1, 7]</t>
-  </si>
-  <si>
-    <t>[0, 0, 3, 1, 2, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '4', '8', '9', '13', '9', '13', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>[4, 8, 15, 17]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '1', '0', '0', '0', '4', '8', '4', '0', '4', '0', '0', '4', '4', '8', '9', '10', '6', '5']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 5, 6]</t>
-  </si>
-  <si>
-    <t>[0, 0, 3, 1, 2, 2]</t>
-  </si>
-  <si>
-    <t>['0', '4', '8', '9', '13', '13', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6]</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 5, 11, 13, 16]</t>
-  </si>
-  <si>
-    <t>[0, 0, 3, 1, 2, 2, 1, 1, 2, 1, 2, 1, 0, 1, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '4', '8', '9', '13', '13', '14', '14', '13', '9', '13', '9', '10', '14', '14', '13', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>[1,0,2,3]</t>
-  </si>
-  <si>
-    <t>[9, 13]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '1', '1', '2', '6', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 7, 9, 17, 19, 21, 22]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 3, 0, 3, 1, 2, 1, 2, 1, 3, 0, 0, 0, 0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '4', '8', '8', '4', '8', '9', '13', '14', '13', '9', '8', '4', '0', '0', '0', '0', '1', '2', '6', '7']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,0,2,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 8, 11, 14, 20]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 3, 0, 0, 0, 3, 0, 0, 3, 1, 3, 1, 2, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '4', '8', '8', '4', '4', '4', '8', '4', '4', '8', '9', '8', '9', '13', '13', '13', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 6, 7, 9, 13]</t>
-  </si>
-  <si>
-    <t>[0, 0, 3, 0, 3, 0, 0, 3, 1, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '1', '2', '1', '0', '4', '8', '9', '13', '14', '13', '9', '5']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]']</t>
+    <t>['[0,0,0,3]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,0,0]', '[0,3,2,1]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[6, 9, 12, 26, 29, 33, 38, 40]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 3, 0, 0, 3, 3, 0, 3, 3, 3, 3, 3, 3, 3, 0, 0, 3, 0, 0, 3, 0, 0, 0, 0, 3, 1, 2, 1, 3, 3, 1, 2, 1, 0, 1, 2, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '8', '4', '0', '1', '1', '2', '3', '3', '3', '3', '3', '3', '3', '2', '2', '1', '0', '4', '8', '4', '4', '0', '4', '8', '9', '13', '9', '8', '8', '9', '13', '14', '10', '9', '13', '14', '13', '9', '13', '14', '15']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[1, 4, 5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '1', '2', '6', '7']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[1,0,2,3]']</t>
   </si>
   <si>
     <t>[1, 2, 4, 5]</t>
   </si>
   <si>
-    <t>[0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '1', '2', '6', '7']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,3]']</t>
+    <t>['[2,1,0,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,1,0,0]']</t>
   </si>
 </sst>
 </file>
@@ -977,13 +983,13 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -995,7 +1001,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1027,13 +1033,13 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -1045,7 +1051,7 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1077,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1127,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1174,19 +1180,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1207,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1224,19 +1230,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1257,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1274,19 +1280,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -1324,19 +1330,19 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -1374,19 +1380,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -1424,19 +1430,19 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -1477,13 +1483,13 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
@@ -1492,22 +1498,22 @@
         <v>100</v>
       </c>
       <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
         <v>39</v>
-      </c>
-      <c r="L12">
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1527,13 +1533,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
@@ -1542,22 +1548,22 @@
         <v>100</v>
       </c>
       <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
         <v>39</v>
-      </c>
-      <c r="L13">
-        <v>22</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1574,40 +1580,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
         <v>43</v>
       </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14">
+        <v>41</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
         <v>44</v>
-      </c>
-      <c r="L14">
-        <v>15</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1624,40 +1630,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15" t="s">
         <v>43</v>
       </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15">
+        <v>41</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
         <v>44</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1674,28 +1680,28 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
         <v>48</v>
       </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
       <c r="L16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1724,28 +1730,28 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
         <v>48</v>
       </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
       <c r="L17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1777,13 +1783,13 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
         <v>52</v>
@@ -1795,7 +1801,7 @@
         <v>53</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1827,13 +1833,13 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>51</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
         <v>52</v>
@@ -1845,7 +1851,7 @@
         <v>53</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1983,7 +1989,7 @@
         <v>62</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
@@ -1995,7 +2001,7 @@
         <v>64</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2033,7 +2039,7 @@
         <v>62</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -2045,7 +2051,7 @@
         <v>64</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2077,13 +2083,13 @@
         <v>66</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
         <v>67</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
         <v>68</v>
@@ -2092,10 +2098,10 @@
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2127,13 +2133,13 @@
         <v>66</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
         <v>67</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
         <v>68</v>
@@ -2142,10 +2148,10 @@
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2274,25 +2280,25 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H28">
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L28">
         <v>25</v>
@@ -2307,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2324,25 +2330,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H29">
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L29">
         <v>25</v>
@@ -2357,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2374,25 +2380,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H30">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2407,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2424,25 +2430,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L31">
         <v>25</v>
@@ -2457,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2465,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2474,19 +2480,19 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H32">
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -2507,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2515,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>0.2</v>
@@ -2524,19 +2530,19 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H33">
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -2557,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2565,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>0.4</v>
@@ -2574,28 +2580,28 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H34">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2615,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>0.4</v>
@@ -2624,28 +2630,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2665,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2674,28 +2680,28 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2715,7 +2721,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>0.6</v>
@@ -2724,28 +2730,28 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2765,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2780,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>49</v>
@@ -2815,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -2830,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>49</v>
@@ -2865,7 +2871,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2880,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>49</v>
@@ -2915,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2930,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -2974,28 +2980,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3024,28 +3030,28 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="L43">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3077,13 +3083,13 @@
         <v>93</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
         <v>94</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I44" t="s">
         <v>95</v>
@@ -3092,10 +3098,10 @@
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="L44">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3107,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3127,13 +3133,13 @@
         <v>93</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I45" t="s">
         <v>95</v>
@@ -3142,10 +3148,10 @@
         <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3157,7 +3163,7 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3174,40 +3180,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46" t="s">
         <v>98</v>
-      </c>
-      <c r="H46">
-        <v>28</v>
-      </c>
-      <c r="I46" t="s">
-        <v>99</v>
-      </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46" t="s">
-        <v>100</v>
-      </c>
-      <c r="L46">
-        <v>29</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46">
-        <v>10</v>
-      </c>
-      <c r="P46" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3224,40 +3230,40 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47" t="s">
         <v>98</v>
-      </c>
-      <c r="H47">
-        <v>28</v>
-      </c>
-      <c r="I47" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47">
-        <v>29</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47">
-        <v>10</v>
-      </c>
-      <c r="P47" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3274,25 +3280,25 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H48">
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L48">
         <v>25</v>
@@ -3307,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3324,25 +3330,25 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H49">
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L49">
         <v>25</v>
@@ -3357,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3374,25 +3380,25 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H50">
         <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L50">
         <v>25</v>
@@ -3407,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3424,25 +3430,25 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L51">
         <v>25</v>
@@ -3457,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3465,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>0.2</v>
@@ -3474,28 +3480,28 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H52">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J52">
         <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3515,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53">
         <v>0.2</v>
@@ -3524,28 +3530,28 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H53">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3565,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>0.4</v>
@@ -3574,28 +3580,28 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3607,7 +3613,7 @@
         <v>10</v>
       </c>
       <c r="P54" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3615,7 +3621,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>0.4</v>
@@ -3624,28 +3630,28 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H55">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3657,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="P55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3665,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>0.6</v>
@@ -3674,28 +3680,28 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H56">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3707,7 +3713,7 @@
         <v>10</v>
       </c>
       <c r="P56" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3715,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C57">
         <v>0.6</v>
@@ -3724,28 +3730,28 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H57">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3757,7 +3763,7 @@
         <v>10</v>
       </c>
       <c r="P57" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3765,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>0.8</v>
@@ -3774,25 +3780,25 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L58">
         <v>25</v>
@@ -3807,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="P58" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3815,7 +3821,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -3824,25 +3830,25 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H59">
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L59">
         <v>25</v>
@@ -3857,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="P59" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3865,7 +3871,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3874,25 +3880,25 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H60">
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L60">
         <v>25</v>
@@ -3907,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="P60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3915,7 +3921,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3924,25 +3930,25 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H61">
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L61">
         <v>25</v>
@@ -3957,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="P61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3965,7 +3971,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>0.2</v>
@@ -3974,28 +3980,28 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H62">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L62">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4007,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="P62" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4015,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>0.2</v>
@@ -4024,28 +4030,28 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H63">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="L63">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4057,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="P63" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4065,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C64">
         <v>0.4</v>
@@ -4074,28 +4080,28 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H64">
+        <v>49</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
         <v>27</v>
       </c>
-      <c r="I64" t="s">
-        <v>114</v>
-      </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="K64" t="s">
-        <v>115</v>
-      </c>
       <c r="L64">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4107,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="P64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4115,7 +4121,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C65">
         <v>0.4</v>
@@ -4124,28 +4130,28 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H65">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>117</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
         <v>27</v>
       </c>
-      <c r="I65" t="s">
-        <v>114</v>
-      </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-      <c r="K65" t="s">
-        <v>115</v>
-      </c>
       <c r="L65">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4157,7 +4163,7 @@
         <v>10</v>
       </c>
       <c r="P65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4165,7 +4171,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C66">
         <v>0.6</v>
@@ -4174,28 +4180,28 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="H66">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="L66">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4207,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="P66" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4215,7 +4221,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C67">
         <v>0.6</v>
@@ -4224,28 +4230,28 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="H67">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4257,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="P67" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4265,7 +4271,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4274,25 +4280,25 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H68">
         <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
       <c r="K68" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L68">
         <v>25</v>
@@ -4307,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="P68" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4315,7 +4321,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4324,25 +4330,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J69">
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L69">
         <v>25</v>
@@ -4357,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="P69" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4365,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4374,25 +4380,25 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H70">
         <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J70">
         <v>100</v>
       </c>
       <c r="K70" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L70">
         <v>25</v>
@@ -4407,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="P70" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4415,7 +4421,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4424,25 +4430,25 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H71">
         <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J71">
         <v>100</v>
       </c>
       <c r="K71" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L71">
         <v>25</v>
@@ -4457,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="P71" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4465,7 +4471,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C72">
         <v>0.2</v>
@@ -4474,28 +4480,28 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H72">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I72" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J72">
         <v>100</v>
       </c>
       <c r="K72" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4507,7 +4513,7 @@
         <v>10</v>
       </c>
       <c r="P72" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4515,7 +4521,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C73">
         <v>0.2</v>
@@ -4524,28 +4530,28 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H73">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J73">
         <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4557,7 +4563,7 @@
         <v>10</v>
       </c>
       <c r="P73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4565,7 +4571,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C74">
         <v>0.4</v>
@@ -4574,28 +4580,28 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H74">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J74">
         <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4607,7 +4613,7 @@
         <v>10</v>
       </c>
       <c r="P74" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4615,7 +4621,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C75">
         <v>0.4</v>
@@ -4624,28 +4630,28 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H75">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I75" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J75">
         <v>100</v>
       </c>
       <c r="K75" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L75">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4657,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="P75" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4665,7 +4671,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C76">
         <v>0.6</v>
@@ -4674,25 +4680,25 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H76">
         <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J76">
         <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L76">
         <v>26</v>
@@ -4707,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="P76" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4715,7 +4721,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C77">
         <v>0.6</v>
@@ -4724,25 +4730,25 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H77">
         <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>100</v>
       </c>
       <c r="K77" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L77">
         <v>26</v>
@@ -4757,7 +4763,7 @@
         <v>10</v>
       </c>
       <c r="P77" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4765,7 +4771,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -4774,25 +4780,25 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H78">
         <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J78">
         <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L78">
         <v>26</v>
@@ -4807,7 +4813,7 @@
         <v>10</v>
       </c>
       <c r="P78" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4815,7 +4821,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -4824,25 +4830,25 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H79">
         <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J79">
         <v>100</v>
       </c>
       <c r="K79" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L79">
         <v>26</v>
@@ -4857,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="P79" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4865,7 +4871,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4874,25 +4880,25 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H80">
         <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J80">
         <v>100</v>
       </c>
       <c r="K80" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L80">
         <v>26</v>
@@ -4907,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="P80" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4915,7 +4921,7 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4924,25 +4930,25 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H81">
         <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J81">
         <v>100</v>
       </c>
       <c r="K81" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L81">
         <v>26</v>
@@ -4957,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="P81" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4965,7 +4971,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C82">
         <v>0.2</v>
@@ -4974,28 +4980,28 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H82">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J82">
         <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L82">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5007,7 +5013,7 @@
         <v>10</v>
       </c>
       <c r="P82" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5015,7 +5021,7 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>0.2</v>
@@ -5024,28 +5030,28 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J83">
         <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L83">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5057,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5065,7 +5071,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C84">
         <v>0.4</v>
@@ -5074,25 +5080,25 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H84">
         <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J84">
         <v>100</v>
       </c>
       <c r="K84" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L84">
         <v>22</v>
@@ -5107,7 +5113,7 @@
         <v>10</v>
       </c>
       <c r="P84" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5115,7 +5121,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C85">
         <v>0.4</v>
@@ -5124,25 +5130,25 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H85">
         <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J85">
         <v>100</v>
       </c>
       <c r="K85" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L85">
         <v>22</v>
@@ -5157,7 +5163,7 @@
         <v>10</v>
       </c>
       <c r="P85" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5165,7 +5171,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C86">
         <v>0.6</v>
@@ -5174,28 +5180,28 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>100</v>
       </c>
       <c r="K86" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="L86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -5207,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="P86" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5215,7 +5221,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C87">
         <v>0.6</v>
@@ -5224,28 +5230,28 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>100</v>
       </c>
       <c r="K87" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5257,7 +5263,7 @@
         <v>10</v>
       </c>
       <c r="P87" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5265,7 +5271,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -5274,29 +5280,29 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>156</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88">
         <v>5</v>
       </c>
-      <c r="G88" t="s">
-        <v>148</v>
-      </c>
-      <c r="H88">
-        <v>16</v>
-      </c>
-      <c r="I88" t="s">
-        <v>149</v>
-      </c>
-      <c r="J88">
-        <v>100</v>
-      </c>
-      <c r="K88" t="s">
-        <v>150</v>
-      </c>
-      <c r="L88">
-        <v>17</v>
-      </c>
       <c r="M88">
         <v>0</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="P88" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5315,7 +5321,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -5324,29 +5330,29 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>156</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89">
         <v>5</v>
       </c>
-      <c r="G89" t="s">
-        <v>148</v>
-      </c>
-      <c r="H89">
-        <v>16</v>
-      </c>
-      <c r="I89" t="s">
-        <v>149</v>
-      </c>
-      <c r="J89">
-        <v>100</v>
-      </c>
-      <c r="K89" t="s">
-        <v>150</v>
-      </c>
-      <c r="L89">
-        <v>17</v>
-      </c>
       <c r="M89">
         <v>0</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="P89" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5365,7 +5371,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5407,7 +5413,7 @@
         <v>10</v>
       </c>
       <c r="P90" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5415,7 +5421,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5457,7 +5463,7 @@
         <v>10</v>
       </c>
       <c r="P91" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5465,7 +5471,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C92">
         <v>0.2</v>
@@ -5474,28 +5480,28 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J92">
         <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5507,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="P92" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5515,7 +5521,7 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C93">
         <v>0.2</v>
@@ -5524,28 +5530,28 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J93">
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -5557,7 +5563,7 @@
         <v>10</v>
       </c>
       <c r="P93" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5565,7 +5571,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C94">
         <v>0.4</v>
@@ -5574,28 +5580,28 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H94">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I94" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J94">
         <v>100</v>
       </c>
       <c r="K94" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5607,7 +5613,7 @@
         <v>10</v>
       </c>
       <c r="P94" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5615,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C95">
         <v>0.4</v>
@@ -5624,28 +5630,28 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H95">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I95" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J95">
         <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="L95">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5657,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="P95" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5665,7 +5671,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C96">
         <v>0.6</v>
@@ -5674,29 +5680,29 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>170</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96" t="s">
+        <v>171</v>
+      </c>
+      <c r="J96">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s">
+        <v>172</v>
+      </c>
+      <c r="L96">
         <v>6</v>
       </c>
-      <c r="G96" t="s">
-        <v>165</v>
-      </c>
-      <c r="H96">
-        <v>20</v>
-      </c>
-      <c r="I96" t="s">
-        <v>166</v>
-      </c>
-      <c r="J96">
-        <v>100</v>
-      </c>
-      <c r="K96" t="s">
-        <v>167</v>
-      </c>
-      <c r="L96">
-        <v>21</v>
-      </c>
       <c r="M96">
         <v>0</v>
       </c>
@@ -5707,7 +5713,7 @@
         <v>10</v>
       </c>
       <c r="P96" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5715,7 +5721,7 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C97">
         <v>0.6</v>
@@ -5724,29 +5730,29 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>170</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97" t="s">
+        <v>171</v>
+      </c>
+      <c r="J97">
+        <v>100</v>
+      </c>
+      <c r="K97" t="s">
+        <v>172</v>
+      </c>
+      <c r="L97">
         <v>6</v>
       </c>
-      <c r="G97" t="s">
-        <v>165</v>
-      </c>
-      <c r="H97">
-        <v>20</v>
-      </c>
-      <c r="I97" t="s">
-        <v>166</v>
-      </c>
-      <c r="J97">
-        <v>100</v>
-      </c>
-      <c r="K97" t="s">
-        <v>167</v>
-      </c>
-      <c r="L97">
-        <v>21</v>
-      </c>
       <c r="M97">
         <v>0</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>10</v>
       </c>
       <c r="P97" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5765,7 +5771,7 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C98">
         <v>0.8</v>
@@ -5774,29 +5780,29 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98" t="s">
+        <v>176</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98" t="s">
+        <v>172</v>
+      </c>
+      <c r="L98">
         <v>6</v>
       </c>
-      <c r="G98" t="s">
-        <v>170</v>
-      </c>
-      <c r="H98">
-        <v>13</v>
-      </c>
-      <c r="I98" t="s">
-        <v>171</v>
-      </c>
-      <c r="J98">
-        <v>100</v>
-      </c>
-      <c r="K98" t="s">
-        <v>157</v>
-      </c>
-      <c r="L98">
-        <v>14</v>
-      </c>
       <c r="M98">
         <v>0</v>
       </c>
@@ -5807,7 +5813,7 @@
         <v>10</v>
       </c>
       <c r="P98" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5815,7 +5821,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C99">
         <v>0.8</v>
@@ -5824,29 +5830,29 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>176</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L99">
         <v>6</v>
       </c>
-      <c r="G99" t="s">
-        <v>170</v>
-      </c>
-      <c r="H99">
-        <v>13</v>
-      </c>
-      <c r="I99" t="s">
-        <v>171</v>
-      </c>
-      <c r="J99">
-        <v>100</v>
-      </c>
-      <c r="K99" t="s">
-        <v>157</v>
-      </c>
-      <c r="L99">
-        <v>14</v>
-      </c>
       <c r="M99">
         <v>0</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>10</v>
       </c>
       <c r="P99" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5865,7 +5871,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5874,25 +5880,25 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F100">
         <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H100">
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J100">
         <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L100">
         <v>6</v>
@@ -5907,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="P100" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5915,7 +5921,7 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5924,25 +5930,25 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H101">
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J101">
         <v>100</v>
       </c>
       <c r="K101" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L101">
         <v>6</v>
@@ -5957,7 +5963,7 @@
         <v>10</v>
       </c>
       <c r="P101" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/experimental results/e6000_FrozenLake.xlsx
+++ b/experimental results/e6000_FrozenLake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="173">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -70,490 +70,469 @@
     <t>[0,0,2,3]</t>
   </si>
   <si>
-    <t>[40]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2, 1, 1, 1, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '14', '14', '14', '13', '9', '13', '14', '15']</t>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>Omitted</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[36, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,1,0,0]', '[0,0,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[38, 40, 42, 44]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 2, 1, 0, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '13', '14', '10', '14', '13', '14', '15']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46]</t>
   </si>
   <si>
-    <t>Omitted</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[38, 40, 44, 48]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 2, 1, 2, 1, 3, 0, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '13', '14', '13', '9', '8', '4', '8', '9', '13', '9']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,0,3]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[2,1,2,3]', '[2,1,0,3]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[1,0,2,3]']</t>
+    <t>['[0,0,2,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]']</t>
   </si>
   <si>
     <t>[2,1,2,3]</t>
   </si>
   <si>
-    <t>[8, 12, 19, 20, 28, 31, 35, 38, 43, 44, 48]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 3, 0, 0, 3, 0, 3, 0, 0, 0, 3, 3, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '8', '8', '4', '0', '0', '0', '0', '0', '0', '0', '0', '0', '4', '4', '8', '8', '8', '4', '0', '0', '0', '0', '0', '1', '0', '0', '4', '8', '4', '4', '8', '4', '8', '4', '0', '0', '1', '1', '0', '0', '0', '4']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[4, 7, 9, 16, 23, 27, 30]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 3, 0, 0, 3, 0, 0, 3, 0, 0, 0, 3, 0, 3, 3, 3, 0, 0, 3, 0, 0, 0, 0, 0, 0, 3, 0, 3, 0, 3, 0, 3, 1, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '1', '0', '0', '1', '2', '2', '1', '2', '6', '2', '1', '2', '3', '3', '3', '2', '2', '1', '0', '0', '4', '4', '0', '4', '8', '4', '8', '4', '8', '4', '8', '9', '13', '14', '13', '14', '15']</t>
+    <t>[9, 29]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '0', '0', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[9, 10, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '0', '1', '2', '2', '6', '7']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,0]', '[2,1,2,3]', '[2,1,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,0,0,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[1, 15, 17, 20]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 1, 2, 1, 2, 1, 2, 1, 2, 2, 1, 3, 0, 3, 0, 3, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>['0', '4', '8', '9', '13', '9', '13', '14', '13', '9', '13', '13', '9', '8', '4', '8', '4', '8', '9', '10', '14', '14', '15']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,0,2,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,3,2,1]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[0,1,2,0]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,3,2,1]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,3]', '[2,1,2,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>['[2,1,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>[0,0,0,3]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,3,2,1]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[38, 40, 41]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2, 1, 0, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '14', '10', '9', '13', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[2,1,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[36, 48, 49]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '13']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,3,2,1]', '[0,1,2,0]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[0,0,2,0]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>[25, 26, 35, 48]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '9']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,2,0]', '[0,1,0,0]']</t>
+  </si>
+  <si>
+    <t>[25, 27]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,0,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[0,0,2,3]', '[0,1,2,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,0,0,3]', '[1,0,2,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[0,1,0,0]</t>
+  </si>
+  <si>
+    <t>['[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,0,0,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,1,2,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,0,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,0,2,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,0,0,3]', '[0,0,2,3]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>[0,0,0,0]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[0,3,2,1]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[25, 29, 30, 33, 35]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3, 3, 3, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '8', '8', '4', '4', '8', '8', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,0,0]']</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[0,3,2,1]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '12']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[2,1,2,3]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,0,3]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,0,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,0,2,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[1,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[24, 25]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '9', '5']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>['[1,0,2,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,2,0]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[2,1,0,3]</t>
+  </si>
+  <si>
+    <t>[1, 5, 9, 16, 20, 23]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 1, 2, 2, 1, 1, 2, 2, 1, 2, 1, 3, 0, 0, 3, 0, 0, 0, 0, 1, 0, 0, 0, 1, 3, 1, 0, 1, 3, 0, 3, 0, 3, 1, 2, 1, 2, 1]</t>
+  </si>
+  <si>
+    <t>['0', '4', '8', '9', '13', '13', '14', '14', '13', '13', '14', '13', '9', '8', '4', '0', '1', '2', '2', '6', '10', '9', '10', '6', '10', '9', '8', '9', '10', '9', '8', '4', '8', '4', '8', '9', '13', '14', '13', '14', '15']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40]</t>
   </si>
   <si>
-    <t>['[2,1,2,3]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>[5, 6, 9, 12, 16, 20]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 3, 0, 0, 0, 3, 0, 3, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '0', '1', '1', '2', '2', '1', '2', '2', '2', '1', '2', '3', '3', '3', '2', '6', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21]</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 7]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 3, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '4', '4', '8', '4', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,0,0]', '[0,3,2,1]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '4', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,0,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[0,1,2,0]</t>
-  </si>
-  <si>
-    <t>[24]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,2,0]', '[1,0,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>[25, 26, 35, 47]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '8']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,0,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,3,2,1]', '[2,1,0,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[25, 26, 35]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '4', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[0,0,0,3]</t>
-  </si>
-  <si>
-    <t>[36]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
-  </si>
-  <si>
-    <t>['[0,1,2,0]', '[0,0,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 2]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '13', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,2,3]', '[2,1,0,3]', '[0,1,0,0]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[36, 48, 49]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '13', '13']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[0,0,2,0]</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,0,2,0]', '[0,0,0,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[25, 28]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28]</t>
-  </si>
-  <si>
-    <t>['[0,0,2,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[2,1,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,3]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[0,1,0,0]</t>
-  </si>
-  <si>
-    <t>[35]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,1,2,0]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>[25, 29, 30, 33, 35]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 3, 1, 3, 3, 3, 0, 0, 3, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '8', '9', '8', '8', '8', '4', '4', '8', '8', '8', '4', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[1,0,2,3]', '[0,1,2,0]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,0,3]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,0,3]', '[0,0,0,0]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,2,3]', '[2,1,0,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>[0,0,0,0]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[36, 47]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '4', '8', '8']</t>
-  </si>
-  <si>
-    <t>['[0,1,0,0]', '[0,0,2,3]', '[0,3,2,1]', '[0,0,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,3]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[36, 37, 38, 41, 42, 44, 45, 46]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 3, 3, 0, 0, 3, 3, 0, 3, 3, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '9', '8', '8', '4', '4', '8', '8', '4', '8', '8', '8', '12']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,2,3]', '[2,1,0,3]', '[0,0,2,3]', '[0,1,0,0]', '[0,1,2,0]', '[0,0,2,0]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,3,2,1]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,0,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,3,2,1]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,0]', '[1,0,2,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[0,3,2,1]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '8', '4', '4', '0', '0', '4', '4', '0', '4', '4', '4', '8', '9', '10', '14']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[35, 36]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '4', '0', '0', '4', '4', '0', '0', '4', '4', '8', '8', '12']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,1,2,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,1,0,0]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[24, 25]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '9', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,0,0,0]', '[0,3,2,1]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,2,3]', '[0,1,2,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '4', '4', '0', '4', '0', '0', '0', '0', '0', '0', '4', '0', '0', '4', '8', '8', '12']</t>
-  </si>
-  <si>
-    <t>['[1,0,2,3]', '[0,0,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,0,3]', '[2,1,2,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>['[0,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,3,2,1]', '[1,0,2,3]', '[0,1,0,0]', '[2,1,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,1,2,0]']</t>
-  </si>
-  <si>
-    <t>[2,1,0,3]</t>
-  </si>
-  <si>
-    <t>[3, 11, 27, 31, 40, 44]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 3, 0, 3, 0, 0, 0, 0, 0, 3, 3, 1, 2, 2, 1, 2, 2, 1, 3, 0, 3, 3, 3, 0, 0, 0, 3, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '8', '4', '8', '4', '4', '0', '4', '4', '8', '8', '9', '13', '13', '14', '13', '13', '9', '8', '4', '8', '8', '8', '4', '0', '4', '8', '4', '0', '1', '0', '0', '4', '0', '0', '0', '0', '0', '0', '0', '0', '4', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44]</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,1,0,0]', '[0,0,0,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,1,2,0]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,0,3]', '[0,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 7, 9, 10, 14, 20]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 3, 3, 0, 0, 3, 3, 3, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '4', '0', '0', '0', '0', '0', '1', '2', '2', '3', '3', '2', '2', '3', '3', '3', '3', '3', '2', '6', '5']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[1,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,3,2,1]', '[2,1,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[0,0,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[0,3,2,1]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,0,3]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4]</t>
-  </si>
-  <si>
-    <t>['0', '0', '0', '4', '5']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,2,3]', '[1,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[0,3,2,1]', '[0,0,2,3]', '[0,1,0,0]']</t>
-  </si>
-  <si>
-    <t>['[0,3,2,1]', '[0,0,0,3]', '[1,0,2,3]', '[0,0,0,0]', '[0,1,0,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,2,3]', '[2,1,2,3]']</t>
+    <t>['[0,1,0,0]', '[2,1,0,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,3]', '[0,0,2,0]', '[1,0,2,3]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 3, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '4', '0', '4', '4', '0', '1', '1', '2', '6', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t>['[2,1,2,3]', '[1,0,2,3]', '[0,0,0,0]', '[2,1,0,3]', '[0,0,0,3]', '[0,3,2,1]', '[0,1,2,0]', '[0,0,2,3]', '[0,1,0,0]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>[1, 9, 15, 17, 20]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 1, 2, 1, 2, 1, 2, 2, 1, 2, 1, 3, 0, 3, 0, 3, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>['0', '4', '8', '9', '13', '9', '13', '14', '13', '13', '14', '13', '9', '8', '4', '8', '4', '8', '9', '10', '14', '14', '15']</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,0,0,3]', '[0,1,0,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,3]', '[1,0,2,3]', '[2,1,0,3]', '[0,0,0,0]', '[0,0,2,0]']</t>
+  </si>
+  <si>
+    <t>['[0,0,0,3]', '[0,1,2,0]', '[0,0,2,0]', '[0,0,0,0]', '[2,1,2,3]', '[0,1,0,0]', '[2,1,0,3]', '[1,0,2,3]', '[0,0,2,3]', '[0,3,2,1]']</t>
+  </si>
+  <si>
+    <t>['[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[1,0,2,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,3,2,1]']</t>
   </si>
   <si>
     <t>[1,0,2,3]</t>
   </si>
   <si>
-    <t>[1, 5]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 3, 3, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '1', '1', '1', '2', '6', '5']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>['[0,0,0,3]', '[1,0,2,3]', '[0,0,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,0,0]', '[0,3,2,1]', '[2,1,2,3]']</t>
-  </si>
-  <si>
-    <t>[6, 9, 12, 26, 29, 33, 38, 40]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0, 0, 3, 0, 0, 3, 3, 0, 3, 3, 3, 3, 3, 3, 3, 0, 0, 3, 0, 0, 3, 0, 0, 0, 0, 3, 1, 2, 1, 3, 3, 1, 2, 1, 0, 1, 2, 1, 2, 1, 2, 1]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '0', '4', '8', '4', '0', '1', '1', '2', '3', '3', '3', '3', '3', '3', '3', '2', '2', '1', '0', '4', '8', '4', '4', '0', '4', '8', '9', '13', '9', '8', '8', '9', '13', '14', '10', '9', '13', '14', '13', '9', '13', '14', '15']</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,0,2,3]', '[2,1,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,1,2,0]', '[0,0,0,0]', '[0,1,0,0]', '[1,0,2,3]', '[0,0,0,3]']</t>
-  </si>
-  <si>
-    <t>[1, 4, 5]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '4', '0', '4', '5']</t>
+    <t>[9, 13]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '4', '4', '0', '1', '1', '2', '6', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[2,1,0,3]', '[0,3,2,1]', '[0,1,0,0]', '[0,0,2,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[1,0,2,3]', '[2,1,2,3]']</t>
+  </si>
+  <si>
+    <t>[6, 8, 9]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '4', '0', '0', '4', '8', '4', '4', '5']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>['[0,1,2,0]', '[0,1,0,0]', '[0,0,2,3]', '[1,0,2,3]', '[2,1,2,3]', '[0,0,0,3]', '[0,0,0,0]', '[0,0,2,0]', '[0,3,2,1]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 0, 3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '1', '2', '1', '0', '0', '4', '4', '5']</t>
+  </si>
+  <si>
+    <t>['[0,1,0,0]', '[1,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[2,1,0,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,0,0]', '[0,0,2,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 6, 7, 9, 11, 12]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 0, 3, 0, 0, 3, 1, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '1', '2', '1', '0', '4', '8', '9', '13', '14', '10', '11']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
+  </si>
+  <si>
+    <t>['[0,3,2,1]', '[0,0,0,0]', '[1,0,2,3]', '[0,0,0,3]', '[0,0,2,0]', '[0,1,2,0]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,2,3]', '[2,1,0,3]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3, 0, 0]</t>
+  </si>
+  <si>
+    <t>['0', '0', '1', '2', '6', '7']</t>
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5]</t>
   </si>
   <si>
-    <t>['[1,0,2,3]', '[0,1,2,0]', '[0,1,0,0]', '[0,0,0,3]', '[0,0,2,3]', '[0,0,0,0]', '[2,1,2,3]', '[0,0,2,0]', '[2,1,0,3]', '[0,3,2,1]']</t>
-  </si>
-  <si>
-    <t>[2, 4, 5]</t>
-  </si>
-  <si>
-    <t>[0, 0, 3, 0, 0]</t>
-  </si>
-  <si>
-    <t>['0', '0', '1', '2', '6', '7']</t>
-  </si>
-  <si>
-    <t>['[0,0,0,0]', '[0,3,2,1]', '[0,1,0,0]', '[2,1,0,3]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[1,0,2,3]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 5]</t>
-  </si>
-  <si>
-    <t>['[2,1,0,3]', '[0,3,2,1]', '[0,0,0,3]', '[0,1,2,0]', '[2,1,2,3]', '[0,0,2,3]', '[1,0,2,3]', '[0,0,2,0]', '[0,0,0,0]', '[0,1,0,0]']</t>
+    <t>['[1,0,2,3]', '[0,3,2,1]', '[0,0,2,0]', '[0,0,2,3]', '[0,0,0,3]', '[2,1,0,3]', '[2,1,2,3]', '[0,1,0,0]', '[0,0,0,0]', '[0,1,2,0]']</t>
   </si>
 </sst>
 </file>
@@ -989,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -1001,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1039,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -1051,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1080,25 +1059,25 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>50</v>
@@ -1113,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1130,25 +1109,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>50</v>
@@ -1163,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1180,25 +1159,25 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -1213,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1230,25 +1209,25 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>50</v>
@@ -1263,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1283,13 +1262,13 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -1298,10 +1277,10 @@
         <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1333,13 +1312,13 @@
         <v>29</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
         <v>31</v>
@@ -1348,10 +1327,10 @@
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1380,25 +1359,25 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <v>50</v>
@@ -1430,25 +1409,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -1483,13 +1462,13 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
@@ -1498,10 +1477,10 @@
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1513,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1533,13 +1512,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
@@ -1548,10 +1527,10 @@
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1563,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1580,28 +1559,28 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1613,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1630,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1663,7 +1642,7 @@
         <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1680,28 +1659,28 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1713,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1730,28 +1709,28 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1763,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1780,28 +1759,28 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1813,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1830,28 +1809,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1863,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1880,25 +1859,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -1913,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1930,25 +1909,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -1963,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1971,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -1980,25 +1959,25 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L22">
         <v>25</v>
@@ -2013,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2021,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>0.2</v>
@@ -2030,25 +2009,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L23">
         <v>25</v>
@@ -2063,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2071,7 +2050,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.4</v>
@@ -2080,25 +2059,25 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24">
         <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L24">
         <v>50</v>
@@ -2113,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2121,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>0.4</v>
@@ -2130,25 +2109,25 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L25">
         <v>50</v>
@@ -2163,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2171,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>0.6</v>
@@ -2180,28 +2159,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2213,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="P26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2221,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.6</v>
@@ -2230,28 +2209,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2263,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="P27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2271,7 +2250,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>0.8</v>
@@ -2280,25 +2259,25 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H28">
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L28">
         <v>25</v>
@@ -2313,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2321,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>0.8</v>
@@ -2330,25 +2309,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H29">
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L29">
         <v>25</v>
@@ -2363,7 +2342,7 @@
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2371,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2380,25 +2359,25 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2413,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2421,7 +2400,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2430,25 +2409,25 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H31">
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L31">
         <v>25</v>
@@ -2463,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2471,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2480,28 +2459,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2513,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2521,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.2</v>
@@ -2530,28 +2509,28 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2563,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2571,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>0.4</v>
@@ -2580,28 +2559,28 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2613,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2621,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>0.4</v>
@@ -2630,28 +2609,28 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2663,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2671,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -2683,13 +2662,13 @@
         <v>81</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
         <v>83</v>
@@ -2701,7 +2680,7 @@
         <v>84</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2713,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2721,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.6</v>
@@ -2733,13 +2712,13 @@
         <v>81</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
         <v>82</v>
       </c>
       <c r="H37">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
         <v>83</v>
@@ -2751,7 +2730,7 @@
         <v>84</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2763,7 +2742,7 @@
         <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2771,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2780,25 +2759,25 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H38">
         <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -2813,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2821,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>0.8</v>
@@ -2830,25 +2809,25 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H39">
         <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -2863,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2871,7 +2850,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2880,25 +2859,25 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H40">
         <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L40">
         <v>50</v>
@@ -2913,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2921,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2930,25 +2909,25 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -2963,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2971,7 +2950,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -2980,28 +2959,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3013,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3021,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>0.2</v>
@@ -3030,28 +3009,28 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3063,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3071,7 +3050,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44">
         <v>0.4</v>
@@ -3080,40 +3059,40 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
         <v>93</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
         <v>94</v>
       </c>
-      <c r="H44">
-        <v>28</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44" t="s">
         <v>95</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44" t="s">
-        <v>96</v>
-      </c>
-      <c r="L44">
-        <v>29</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44">
-        <v>10</v>
-      </c>
-      <c r="P44" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3121,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>0.4</v>
@@ -3130,40 +3109,40 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
         <v>93</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s">
         <v>94</v>
       </c>
-      <c r="H45">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45" t="s">
         <v>95</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" t="s">
-        <v>96</v>
-      </c>
-      <c r="L45">
-        <v>29</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45">
-        <v>10</v>
-      </c>
-      <c r="P45" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3171,7 +3150,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>0.6</v>
@@ -3180,28 +3159,28 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="H46">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3213,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3221,7 +3200,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>0.6</v>
@@ -3230,28 +3209,28 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="H47">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3263,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3271,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <v>0.8</v>
@@ -3280,25 +3259,25 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H48">
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L48">
         <v>25</v>
@@ -3313,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3321,7 +3300,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49">
         <v>0.8</v>
@@ -3330,25 +3309,25 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H49">
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L49">
         <v>25</v>
@@ -3363,7 +3342,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3371,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3380,25 +3359,25 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H50">
         <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L50">
         <v>25</v>
@@ -3413,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3421,7 +3400,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3430,25 +3409,25 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H51">
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L51">
         <v>25</v>
@@ -3463,7 +3442,7 @@
         <v>10</v>
       </c>
       <c r="P51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3471,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52">
         <v>0.2</v>
@@ -3480,40 +3459,40 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H52">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52">
+        <v>40</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52" t="s">
         <v>104</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52">
-        <v>50</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52">
-        <v>10</v>
-      </c>
-      <c r="P52" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3521,7 +3500,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C53">
         <v>0.2</v>
@@ -3530,40 +3509,40 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53">
+        <v>40</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
         <v>104</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53">
-        <v>50</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
-        <v>22</v>
-      </c>
-      <c r="O53">
-        <v>10</v>
-      </c>
-      <c r="P53" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3571,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C54">
         <v>0.4</v>
@@ -3580,28 +3559,28 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H54">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="J54">
         <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L54">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3613,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="P54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3621,7 +3600,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C55">
         <v>0.4</v>
@@ -3630,28 +3609,28 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H55">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="J55">
         <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3663,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="P55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3671,7 +3650,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56">
         <v>0.6</v>
@@ -3680,28 +3659,28 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H56">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J56">
         <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3713,7 +3692,7 @@
         <v>10</v>
       </c>
       <c r="P56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3721,7 +3700,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>0.6</v>
@@ -3730,28 +3709,28 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H57">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3763,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="P57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3771,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>0.8</v>
@@ -3780,25 +3759,25 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L58">
         <v>25</v>
@@ -3813,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="P58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3821,7 +3800,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -3830,25 +3809,25 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H59">
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L59">
         <v>25</v>
@@ -3863,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="P59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3871,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3880,25 +3859,25 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H60">
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L60">
         <v>25</v>
@@ -3913,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="P60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3921,7 +3900,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3930,25 +3909,25 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H61">
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L61">
         <v>25</v>
@@ -3963,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="P61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3971,7 +3950,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>0.2</v>
@@ -3980,28 +3959,28 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H62">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="L62">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4013,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="P62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4021,7 +4000,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>0.2</v>
@@ -4030,28 +4009,28 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H63">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J63">
         <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="L63">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4063,7 +4042,7 @@
         <v>10</v>
       </c>
       <c r="P63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4071,7 +4050,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C64">
         <v>0.4</v>
@@ -4080,25 +4059,25 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H64">
         <v>49</v>
       </c>
       <c r="I64" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L64">
         <v>50</v>
@@ -4113,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="P64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4121,7 +4100,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>0.4</v>
@@ -4130,25 +4109,25 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H65">
         <v>49</v>
       </c>
       <c r="I65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J65">
         <v>100</v>
       </c>
       <c r="K65" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L65">
         <v>50</v>
@@ -4163,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="P65" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4171,7 +4150,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>0.6</v>
@@ -4180,28 +4159,28 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="H66">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="J66">
         <v>100</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="L66">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4213,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="P66" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4221,7 +4200,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C67">
         <v>0.6</v>
@@ -4230,28 +4209,28 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="H67">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="J67">
         <v>100</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="L67">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4263,7 +4242,7 @@
         <v>10</v>
       </c>
       <c r="P67" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4271,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C68">
         <v>0.8</v>
@@ -4280,25 +4259,25 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H68">
         <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J68">
         <v>100</v>
       </c>
       <c r="K68" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L68">
         <v>25</v>
@@ -4313,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="P68" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4321,7 +4300,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C69">
         <v>0.8</v>
@@ -4330,25 +4309,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H69">
         <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J69">
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L69">
         <v>25</v>
@@ -4363,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="P69" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4371,7 +4350,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4380,25 +4359,25 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H70">
         <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J70">
         <v>100</v>
       </c>
       <c r="K70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L70">
         <v>25</v>
@@ -4413,7 +4392,7 @@
         <v>10</v>
       </c>
       <c r="P70" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4421,7 +4400,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4430,25 +4409,25 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H71">
         <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J71">
         <v>100</v>
       </c>
       <c r="K71" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L71">
         <v>25</v>
@@ -4463,7 +4442,7 @@
         <v>10</v>
       </c>
       <c r="P71" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4471,7 +4450,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C72">
         <v>0.2</v>
@@ -4480,28 +4459,28 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H72">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J72">
         <v>100</v>
       </c>
       <c r="K72" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="L72">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4513,7 +4492,7 @@
         <v>10</v>
       </c>
       <c r="P72" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4521,7 +4500,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C73">
         <v>0.2</v>
@@ -4530,28 +4509,28 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H73">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J73">
         <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4563,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="P73" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4571,7 +4550,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C74">
         <v>0.4</v>
@@ -4580,28 +4559,28 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H74">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J74">
         <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L74">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4613,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="P74" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4621,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C75">
         <v>0.4</v>
@@ -4630,28 +4609,28 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H75">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J75">
         <v>100</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L75">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4663,7 +4642,7 @@
         <v>10</v>
       </c>
       <c r="P75" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4671,7 +4650,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C76">
         <v>0.6</v>
@@ -4680,25 +4659,25 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H76">
         <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="J76">
         <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L76">
         <v>26</v>
@@ -4713,7 +4692,7 @@
         <v>10</v>
       </c>
       <c r="P76" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4721,7 +4700,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C77">
         <v>0.6</v>
@@ -4730,25 +4709,25 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H77">
         <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="J77">
         <v>100</v>
       </c>
       <c r="K77" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L77">
         <v>26</v>
@@ -4763,7 +4742,7 @@
         <v>10</v>
       </c>
       <c r="P77" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4771,7 +4750,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C78">
         <v>0.8</v>
@@ -4780,25 +4759,25 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H78">
         <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J78">
         <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L78">
         <v>26</v>
@@ -4813,7 +4792,7 @@
         <v>10</v>
       </c>
       <c r="P78" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4821,7 +4800,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C79">
         <v>0.8</v>
@@ -4830,25 +4809,25 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H79">
         <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J79">
         <v>100</v>
       </c>
       <c r="K79" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L79">
         <v>26</v>
@@ -4863,7 +4842,7 @@
         <v>10</v>
       </c>
       <c r="P79" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4871,7 +4850,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4880,25 +4859,25 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H80">
         <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J80">
         <v>100</v>
       </c>
       <c r="K80" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L80">
         <v>26</v>
@@ -4913,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="P80" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4921,7 +4900,7 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4930,25 +4909,25 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H81">
         <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J81">
         <v>100</v>
       </c>
       <c r="K81" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L81">
         <v>26</v>
@@ -4963,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="P81" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4971,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C82">
         <v>0.2</v>
@@ -4980,28 +4959,28 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F82">
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H82">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J82">
         <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L82">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5013,7 +4992,7 @@
         <v>10</v>
       </c>
       <c r="P82" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5021,7 +5000,7 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C83">
         <v>0.2</v>
@@ -5030,28 +5009,28 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F83">
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H83">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J83">
         <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L83">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5063,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5071,7 +5050,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C84">
         <v>0.4</v>
@@ -5080,28 +5059,28 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H84">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J84">
         <v>100</v>
       </c>
       <c r="K84" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5113,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="P84" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5121,7 +5100,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C85">
         <v>0.4</v>
@@ -5130,28 +5109,28 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H85">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J85">
         <v>100</v>
       </c>
       <c r="K85" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="L85">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -5163,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="P85" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5171,7 +5150,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C86">
         <v>0.6</v>
@@ -5180,28 +5159,28 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I86" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="J86">
         <v>100</v>
       </c>
       <c r="K86" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -5213,7 +5192,7 @@
         <v>10</v>
       </c>
       <c r="P86" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5221,7 +5200,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C87">
         <v>0.6</v>
@@ -5230,28 +5209,28 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="J87">
         <v>100</v>
       </c>
       <c r="K87" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5263,7 +5242,7 @@
         <v>10</v>
       </c>
       <c r="P87" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5271,7 +5250,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C88">
         <v>0.8</v>
@@ -5280,25 +5259,25 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H88">
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L88">
         <v>5</v>
@@ -5313,7 +5292,7 @@
         <v>10</v>
       </c>
       <c r="P88" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5321,7 +5300,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C89">
         <v>0.8</v>
@@ -5330,25 +5309,25 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H89">
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L89">
         <v>5</v>
@@ -5363,7 +5342,7 @@
         <v>10</v>
       </c>
       <c r="P89" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5371,7 +5350,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5380,25 +5359,25 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F90">
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H90">
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>100</v>
       </c>
       <c r="K90" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L90">
         <v>5</v>
@@ -5413,7 +5392,7 @@
         <v>10</v>
       </c>
       <c r="P90" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5421,7 +5400,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5430,25 +5409,25 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>100</v>
       </c>
       <c r="K91" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L91">
         <v>5</v>
@@ -5463,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="P91" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5471,7 +5450,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C92">
         <v>0.2</v>
@@ -5480,28 +5459,28 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J92">
         <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L92">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5513,7 +5492,7 @@
         <v>10</v>
       </c>
       <c r="P92" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5521,7 +5500,7 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C93">
         <v>0.2</v>
@@ -5530,28 +5509,28 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J93">
         <v>100</v>
       </c>
       <c r="K93" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -5563,7 +5542,7 @@
         <v>10</v>
       </c>
       <c r="P93" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5571,7 +5550,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C94">
         <v>0.4</v>
@@ -5580,28 +5559,28 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H94">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J94">
         <v>100</v>
       </c>
       <c r="K94" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="L94">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5613,7 +5592,7 @@
         <v>10</v>
       </c>
       <c r="P94" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5621,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C95">
         <v>0.4</v>
@@ -5630,28 +5609,28 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H95">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J95">
         <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="L95">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5663,7 +5642,7 @@
         <v>10</v>
       </c>
       <c r="P95" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5671,7 +5650,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C96">
         <v>0.6</v>
@@ -5680,28 +5659,28 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -5713,7 +5692,7 @@
         <v>10</v>
       </c>
       <c r="P96" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5721,7 +5700,7 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C97">
         <v>0.6</v>
@@ -5730,28 +5709,28 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G97" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J97">
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -5763,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="P97" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5771,7 +5750,7 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C98">
         <v>0.8</v>
@@ -5780,28 +5759,28 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J98">
         <v>100</v>
       </c>
       <c r="K98" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -5813,7 +5792,7 @@
         <v>10</v>
       </c>
       <c r="P98" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5821,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C99">
         <v>0.8</v>
@@ -5830,28 +5809,28 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J99">
         <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -5863,7 +5842,7 @@
         <v>10</v>
       </c>
       <c r="P99" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5871,7 +5850,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5880,25 +5859,25 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F100">
         <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H100">
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J100">
         <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L100">
         <v>6</v>
@@ -5913,7 +5892,7 @@
         <v>10</v>
       </c>
       <c r="P100" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5921,7 +5900,7 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5930,25 +5909,25 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H101">
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J101">
         <v>100</v>
       </c>
       <c r="K101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L101">
         <v>6</v>
@@ -5963,7 +5942,7 @@
         <v>10</v>
       </c>
       <c r="P101" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
